--- a/data/trans_dic/P19C09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002507760890028213</v>
+        <v>0.002598902422408442</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01025070590136604</v>
+        <v>0.008625668015723505</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01652567786098865</v>
+        <v>0.01844831712252325</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.004945289330116509</v>
+        <v>0.005052642734329925</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01662212818813615</v>
+        <v>0.0161504531566534</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01059435380511776</v>
+        <v>0.01056414416815145</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.005195027837810552</v>
+        <v>0.005074002744975766</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01648418998429215</v>
+        <v>0.01609500066397981</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01726219227567442</v>
+        <v>0.01734031786169967</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02253428041300115</v>
+        <v>0.02343181218305105</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03916667071536291</v>
+        <v>0.04091298668039445</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05729204253838363</v>
+        <v>0.06012203913016706</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02815436947727228</v>
+        <v>0.02840031336393259</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05334136005197588</v>
+        <v>0.05322423745966788</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04028664815645102</v>
+        <v>0.04045147250393797</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02058646483214891</v>
+        <v>0.02013048590714754</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04009696182159976</v>
+        <v>0.0396695749741891</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04214060915915371</v>
+        <v>0.04257923474079815</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0106229681845683</v>
+        <v>0.009973275598112591</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009612873256111949</v>
+        <v>0.008341218998772859</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01776664644577868</v>
+        <v>0.01653980955017994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01320111186667745</v>
+        <v>0.01210120774074709</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0216513146608058</v>
+        <v>0.02203671253039989</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01985675192717339</v>
+        <v>0.02035765326847769</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01409839517507615</v>
+        <v>0.01420610193487532</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01828667612065094</v>
+        <v>0.01786155602481535</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02063962815274697</v>
+        <v>0.02186857052561239</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03839293272123064</v>
+        <v>0.03523790369236202</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03399106807578015</v>
+        <v>0.03264772524208347</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05132535491908456</v>
+        <v>0.05026017021971563</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04076201595581452</v>
+        <v>0.04082908893474708</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05248442266520872</v>
+        <v>0.05573525765293078</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05265478394394</v>
+        <v>0.05309452482881424</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03331896209100269</v>
+        <v>0.0333241663570299</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03726803391546869</v>
+        <v>0.03769496441722928</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04332680234521472</v>
+        <v>0.04415365424458814</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01379600181798582</v>
+        <v>0.01311287700374168</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005098887154636834</v>
+        <v>0.005000276276023394</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02095268620122175</v>
+        <v>0.02009156368888481</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009206659528559695</v>
+        <v>0.009380823627253888</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01485804663363289</v>
+        <v>0.01429991096152382</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0111805204444241</v>
+        <v>0.01206212485161836</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01358895138438056</v>
+        <v>0.01344869741236003</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0116268824481474</v>
+        <v>0.01246638884724236</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01885114226311529</v>
+        <v>0.01916886485440582</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04170317523831162</v>
+        <v>0.04455284879735118</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02787270477565749</v>
+        <v>0.02708554695612179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05350282878174406</v>
+        <v>0.05261460941623133</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03408272060886432</v>
+        <v>0.03246387830518577</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04481914937915609</v>
+        <v>0.04409144715332119</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03616026696611608</v>
+        <v>0.03817627542388657</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03091430516253993</v>
+        <v>0.03108528743626773</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03019660322983131</v>
+        <v>0.03135934933511053</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04060024169361293</v>
+        <v>0.0396462274800316</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004750937494366222</v>
+        <v>0.005045213891137162</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004064998582712091</v>
+        <v>0.004063509165806415</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01036042897051788</v>
+        <v>0.01030094700854567</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01814152932864039</v>
+        <v>0.01923997470369512</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007852055728223421</v>
+        <v>0.007982183521031052</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01340958340128028</v>
+        <v>0.01364053810826718</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01544445347758286</v>
+        <v>0.01616698546113218</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.008735877006628088</v>
+        <v>0.008742356332437485</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01402407751678673</v>
+        <v>0.01420799353797316</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03689907474317539</v>
+        <v>0.03728895493509741</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0252234253006962</v>
+        <v>0.02354934530459557</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03519541488056614</v>
+        <v>0.03542946023461081</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05376049667078621</v>
+        <v>0.05238282739041471</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03569121586664753</v>
+        <v>0.03409934644293582</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03980741806505053</v>
+        <v>0.04127550251881779</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03821104895475116</v>
+        <v>0.03823599328685022</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02616620418134825</v>
+        <v>0.02581505231246388</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03476324895620004</v>
+        <v>0.03289756240740781</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01718745342484989</v>
+        <v>0.01682664868717402</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.006005867588963889</v>
+        <v>0.005845657201713998</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008610753167420541</v>
+        <v>0.006058202148214401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03409777059875594</v>
+        <v>0.03507517902965343</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01061108645894691</v>
+        <v>0.01037937588369784</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02110453194657375</v>
+        <v>0.02087452995558711</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03180717117785945</v>
+        <v>0.03135629307443277</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01117978776879405</v>
+        <v>0.01138592266474624</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01721297705926834</v>
+        <v>0.01726461953347442</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06215164593570319</v>
+        <v>0.05997621284932871</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03237621825594718</v>
+        <v>0.03511619372885585</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03854447135161286</v>
+        <v>0.03840083069354253</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08774883577685128</v>
+        <v>0.08940239866265255</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0451176942764798</v>
+        <v>0.04407383873904127</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06213836010878172</v>
+        <v>0.06179007557584449</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06761828889161792</v>
+        <v>0.06680745815624818</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03436859672169147</v>
+        <v>0.03385839828906095</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04235245381099609</v>
+        <v>0.04385143842420874</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02173085573435518</v>
+        <v>0.02156195514418545</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01588252780967227</v>
+        <v>0.0190757896920033</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.008107460938842017</v>
+        <v>0.008126193580800703</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03433406303654427</v>
+        <v>0.03393818643586829</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01003362386748461</v>
+        <v>0.009948481440934369</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0074486010193584</v>
+        <v>0.007614796462394219</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03414479130445339</v>
+        <v>0.03529670394196691</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01636429358199851</v>
+        <v>0.01789057971003597</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01128311547768998</v>
+        <v>0.01098937433629579</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07741561734381798</v>
+        <v>0.07640722863810231</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07713483157453625</v>
+        <v>0.07734730473010643</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04568648673479367</v>
+        <v>0.04847166588082109</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09352269018976535</v>
+        <v>0.09289500589367554</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04727085564361157</v>
+        <v>0.04381588723377583</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04272648658657215</v>
+        <v>0.04528432286692201</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.07331588026722748</v>
+        <v>0.07360016969351839</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04893309983947203</v>
+        <v>0.05022888801592681</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03671652664165294</v>
+        <v>0.03511779668183516</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05049991220900369</v>
+        <v>0.05019017668785411</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02910176705458811</v>
+        <v>0.02834781121593827</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0220747670209498</v>
+        <v>0.0220787513564649</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02484075518966193</v>
+        <v>0.02781637088595695</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.005894449814876163</v>
+        <v>0.008739225688101268</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04096194495426966</v>
+        <v>0.04117402633758346</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01747964780109842</v>
+        <v>0.0173705091884182</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02259647527803234</v>
+        <v>0.0205624436426081</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1592912855190678</v>
+        <v>0.1586821084315896</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02681824693539282</v>
+        <v>0.03557377013217982</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1059369898064489</v>
+        <v>0.1047081782943077</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09079069746825429</v>
+        <v>0.08659141350548315</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07688718376761609</v>
+        <v>0.07999732664184313</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06381211870405649</v>
+        <v>0.06539395267046712</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09683304294741274</v>
+        <v>0.09727736839750595</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05483947807092077</v>
+        <v>0.05124576792891983</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06360033801172317</v>
+        <v>0.06553398258891742</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02032472880889192</v>
+        <v>0.01984794446507648</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01248727803276262</v>
+        <v>0.01248860075836421</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02250323392969885</v>
+        <v>0.02298264144565058</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02568272201931696</v>
+        <v>0.02525257214440569</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02247442753982996</v>
+        <v>0.02274187612293413</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02140197880839943</v>
+        <v>0.02114724741871473</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02484214043558011</v>
+        <v>0.02463157344782127</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01891296821270371</v>
+        <v>0.01889018062068277</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02360114880291445</v>
+        <v>0.02312604178608835</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03301234151462525</v>
+        <v>0.03343610597349272</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02274304831822391</v>
+        <v>0.0225642179642446</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03598608752734221</v>
+        <v>0.03623298584949804</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0391889274398797</v>
+        <v>0.03849339884572671</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03540532009956969</v>
+        <v>0.03500640521527052</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03333207058713388</v>
+        <v>0.03344187071669875</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03430749489290458</v>
+        <v>0.03396449384356837</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02693804400646162</v>
+        <v>0.02757179325241267</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03273421229694996</v>
+        <v>0.03247283202153808</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>901</v>
+        <v>934</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3754</v>
+        <v>3158</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5831</v>
+        <v>6509</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1861</v>
+        <v>1901</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6006</v>
+        <v>5835</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3728</v>
+        <v>3718</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3822</v>
+        <v>3733</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11992</v>
+        <v>11709</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12166</v>
+        <v>12221</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8099</v>
+        <v>8421</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14342</v>
+        <v>14981</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>20215</v>
+        <v>21213</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10593</v>
+        <v>10686</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19272</v>
+        <v>19230</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14178</v>
+        <v>14236</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15144</v>
+        <v>14809</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29169</v>
+        <v>28858</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29699</v>
+        <v>30009</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6117</v>
+        <v>5742</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5665</v>
+        <v>4916</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8760</v>
+        <v>8155</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7230</v>
+        <v>6628</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11726</v>
+        <v>11935</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9863</v>
+        <v>10112</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15839</v>
+        <v>15960</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>20680</v>
+        <v>20200</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20429</v>
+        <v>21645</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22106</v>
+        <v>20289</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20032</v>
+        <v>19240</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25307</v>
+        <v>24782</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22326</v>
+        <v>22362</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>28424</v>
+        <v>30185</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>26155</v>
+        <v>26373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>37433</v>
+        <v>37439</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>42146</v>
+        <v>42629</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>42885</v>
+        <v>43703</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6912</v>
+        <v>6570</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2912</v>
+        <v>2856</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11689</v>
+        <v>11208</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5538</v>
+        <v>5643</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9557</v>
+        <v>9198</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6407</v>
+        <v>6913</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14982</v>
+        <v>14828</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14119</v>
+        <v>15138</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>21320</v>
+        <v>21679</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20894</v>
+        <v>22321</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15918</v>
+        <v>15469</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29847</v>
+        <v>29352</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20502</v>
+        <v>19528</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>28829</v>
+        <v>28361</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20723</v>
+        <v>21878</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34084</v>
+        <v>34273</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36668</v>
+        <v>38080</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>45916</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1923</v>
+        <v>2042</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>2117</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5308</v>
+        <v>5278</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7967</v>
+        <v>8450</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4294</v>
+        <v>4365</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7307</v>
+        <v>7433</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13034</v>
+        <v>13644</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9328</v>
+        <v>9335</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14827</v>
+        <v>15021</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14935</v>
+        <v>15093</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13138</v>
+        <v>12266</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18033</v>
+        <v>18153</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23611</v>
+        <v>23006</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19519</v>
+        <v>18648</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21690</v>
+        <v>22490</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>32248</v>
+        <v>32269</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27939</v>
+        <v>27564</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>36754</v>
+        <v>34781</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4666</v>
+        <v>4569</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2097</v>
+        <v>2041</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3195</v>
+        <v>2248</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10824</v>
+        <v>11134</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4058</v>
+        <v>3970</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8355</v>
+        <v>8264</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>18733</v>
+        <v>18467</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8179</v>
+        <v>8330</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>13200</v>
+        <v>13240</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>16874</v>
+        <v>16284</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11304</v>
+        <v>12261</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14300</v>
+        <v>14247</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>27855</v>
+        <v>28379</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>17255</v>
+        <v>16856</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>24599</v>
+        <v>24461</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>39823</v>
+        <v>39346</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25144</v>
+        <v>24771</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>32479</v>
+        <v>33629</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4591</v>
+        <v>4556</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4151</v>
+        <v>4986</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>8478</v>
+        <v>8381</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2977</v>
+        <v>2951</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2063</v>
+        <v>2109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>15646</v>
+        <v>16174</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>9132</v>
+        <v>9984</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5721</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>16356</v>
+        <v>16143</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>20161</v>
+        <v>20217</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10514</v>
+        <v>11155</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>23094</v>
+        <v>22939</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>14024</v>
+        <v>12999</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11833</v>
+        <v>12541</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>33595</v>
+        <v>33725</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>27307</v>
+        <v>28030</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>18618</v>
+        <v>17807</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>6402</v>
+        <v>6362</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4280</v>
+        <v>4169</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>7405</v>
+        <v>8292</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1343</v>
+        <v>1991</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>13721</v>
+        <v>13792</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>8334</v>
+        <v>8282</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>8472</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>20192</v>
+        <v>20115</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>4793</v>
+        <v>6358</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15579</v>
+        <v>15398</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>18903</v>
+        <v>18029</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>22919</v>
+        <v>23846</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>14541</v>
+        <v>14902</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>32436</v>
+        <v>32585</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>26148</v>
+        <v>24434</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>23846</v>
+        <v>24571</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>49806</v>
+        <v>48637</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>35423</v>
+        <v>35427</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>59956</v>
+        <v>61233</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>70300</v>
+        <v>69123</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>69001</v>
+        <v>69822</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>61366</v>
+        <v>60636</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>128875</v>
+        <v>127782</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>111717</v>
+        <v>111582</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>130553</v>
+        <v>127925</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>80896</v>
+        <v>81935</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>64516</v>
+        <v>64008</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>95879</v>
+        <v>96537</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>107270</v>
+        <v>105366</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>108701</v>
+        <v>107476</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>95574</v>
+        <v>95888</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>177979</v>
+        <v>176199</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>159120</v>
+        <v>162864</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>181074</v>
+        <v>179628</v>
       </c>
     </row>
     <row r="36">
